--- a/frontend/uploads/excel/学生信息表.xlsx
+++ b/frontend/uploads/excel/学生信息表.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +588,44 @@
       </c>
       <c r="L5">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
